--- a/data/trans_dic/P15D$consultar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03600443165828678</v>
+        <v>0.03738958535451051</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03855837870740846</v>
+        <v>0.04044421111562795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1125307295476343</v>
+        <v>0.1162838020196513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07168507499637039</v>
+        <v>0.07620001576275333</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02539358681414446</v>
+        <v>0.02651777947566747</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04345404255020891</v>
+        <v>0.03694788200313</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06170329021286804</v>
+        <v>0.07074219864872393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1347787884906596</v>
+        <v>0.1290145004818448</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04604428030270071</v>
+        <v>0.04481625643464899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04993285848552622</v>
+        <v>0.05096935002351177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1107764561109878</v>
+        <v>0.1084424117922055</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1311125413051463</v>
+        <v>0.1301626873788708</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2872530033483537</v>
+        <v>0.2939762865882102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1758017521221144</v>
+        <v>0.1767863637904791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3429509904376704</v>
+        <v>0.3448237358444998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2756579354771683</v>
+        <v>0.2799444578896831</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2207022627982895</v>
+        <v>0.2296795529640049</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1443479506438211</v>
+        <v>0.1456322025453879</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2295943352041585</v>
+        <v>0.2364560606493854</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2681092831942167</v>
+        <v>0.2623729229548789</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1999788828015487</v>
+        <v>0.2002341599488555</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1273857986023531</v>
+        <v>0.1374508911384243</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2478232554337387</v>
+        <v>0.2442305974819989</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2411584163138769</v>
+        <v>0.2475497283431601</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1033913834728638</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07817391437731853</v>
+        <v>0.07817391437731852</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1921107086362012</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06957381303227186</v>
+        <v>0.07359745298557482</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03160490669174026</v>
+        <v>0.0305614896288326</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05472234919250347</v>
+        <v>0.06081007795023057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03607694560597167</v>
+        <v>0.0377931457589053</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08082638782169324</v>
+        <v>0.08212055357947681</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04168119208379718</v>
+        <v>0.04349941505532414</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03557120521085747</v>
+        <v>0.03534316166643303</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09695239853762171</v>
+        <v>0.09311911072213444</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09813646076228165</v>
+        <v>0.0906794174953398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04363540825692939</v>
+        <v>0.04531806995984261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06038538876493905</v>
+        <v>0.05816857459522623</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07493754492184625</v>
+        <v>0.07461886413454076</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2317794090541158</v>
+        <v>0.226213520632193</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1081982167592308</v>
+        <v>0.1078598646797343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1692540462319782</v>
+        <v>0.1719699707947922</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1516567043588322</v>
+        <v>0.1488752818664179</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.388444613716517</v>
+        <v>0.3564168787287074</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1575870836833107</v>
+        <v>0.1522145080726918</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1553337604927203</v>
+        <v>0.1595679080353031</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2224189198652317</v>
+        <v>0.2208661035794207</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2328547103974281</v>
+        <v>0.2292430553781026</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1069164807462199</v>
+        <v>0.1116336290106738</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1440013058189955</v>
+        <v>0.1366579677738127</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1612445682006597</v>
+        <v>0.1570191401078924</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.06005117707099919</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2751142589962493</v>
+        <v>0.2751142589962494</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1140639844785806</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04448620530687001</v>
+        <v>0.04348519800967281</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07437868448039142</v>
+        <v>0.07323884981122933</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02971775210130355</v>
+        <v>0.03108039291263462</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1607279704140235</v>
+        <v>0.1652980438568537</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02808658714112409</v>
+        <v>0.02811083922997116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06476521547160308</v>
+        <v>0.06753560599609093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01532884673548158</v>
+        <v>0.01526599403234214</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08733930020243359</v>
+        <v>0.08440114583748164</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3611313974931344</v>
+        <v>0.3920452634852368</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4146868458835262</v>
+        <v>0.3815273887228685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2004476566113093</v>
+        <v>0.1954098319360256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1719317198297016</v>
+        <v>0.1673395625997681</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3637140890191928</v>
+        <v>0.3106151744924178</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2687733405476839</v>
+        <v>0.278696605820272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1975076527851515</v>
+        <v>0.1883120161478014</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4262577835883153</v>
+        <v>0.4156840126242594</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2640563903495721</v>
+        <v>0.2659736131327784</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2546486665859975</v>
+        <v>0.2638086349197187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1389589055402704</v>
+        <v>0.1466942822667066</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2406079593907949</v>
+        <v>0.2371497176151671</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1023582713288297</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1830883131499845</v>
+        <v>0.1830883131499846</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1315272877838212</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05282045903080715</v>
+        <v>0.05095108711936979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08515505114127006</v>
+        <v>0.08269593252431939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05152098843901824</v>
+        <v>0.05350342290182506</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1417161966369397</v>
+        <v>0.1471472527812153</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06232764269744039</v>
+        <v>0.06043041794293579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08572325465389559</v>
+        <v>0.08539825537554067</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1096735491476106</v>
+        <v>0.1062762310467923</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.120705258668652</v>
+        <v>0.1180152223763956</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1784925172267408</v>
+        <v>0.1752077742593545</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1359564947834302</v>
+        <v>0.1358490638655183</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2324660989397866</v>
+        <v>0.236825458074459</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1114889849784431</v>
+        <v>0.1082600612678258</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1469197068299901</v>
+        <v>0.1509882173604864</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1723449369730673</v>
+        <v>0.1672990450616114</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="D6" s="6" t="n">
+        <v>3026</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>5315</v>
+      </c>
+      <c r="F6" s="6" t="n">
         <v>2884</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>5143</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>2713</v>
-      </c>
       <c r="G6" s="6" t="n">
-        <v>1156</v>
+        <v>1207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4861</v>
+        <v>4133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4603</v>
+        <v>5278</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11392</v>
+        <v>10904</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3255</v>
+        <v>3169</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9321</v>
+        <v>9515</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13327</v>
+        <v>13046</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16043</v>
+        <v>15927</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7231</v>
+        <v>7401</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13151</v>
+        <v>13225</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15674</v>
+        <v>15759</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10432</v>
+        <v>10594</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10048</v>
+        <v>10457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16148</v>
+        <v>16291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17128</v>
+        <v>17640</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22661</v>
+        <v>22176</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14139</v>
+        <v>14157</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23779</v>
+        <v>25658</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29814</v>
+        <v>29382</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29509</v>
+        <v>30291</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5462</v>
+        <v>5778</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5753</v>
+        <v>5563</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6631</v>
+        <v>7369</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5059</v>
+        <v>5299</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2832</v>
+        <v>2878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4739</v>
+        <v>4946</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3011</v>
+        <v>2992</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10764</v>
+        <v>10339</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11143</v>
+        <v>10296</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12904</v>
+        <v>13401</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12430</v>
+        <v>11973</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18828</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18195</v>
+        <v>17758</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19694</v>
+        <v>19632</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20510</v>
+        <v>20839</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21265</v>
+        <v>20875</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13612</v>
+        <v>12490</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17918</v>
+        <v>17307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13150</v>
+        <v>13509</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24695</v>
+        <v>24522</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26440</v>
+        <v>26030</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>31617</v>
+        <v>33012</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29641</v>
+        <v>28129</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>40512</v>
+        <v>39450</v>
       </c>
     </row>
     <row r="12">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -1838,25 +1838,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5664</v>
+        <v>5825</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>917</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3551</v>
+        <v>3703</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6717</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7006</v>
+        <v>7606</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10804</v>
+        <v>9940</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6173</v>
+        <v>6018</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7164</v>
+        <v>6973</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4814</v>
+        <v>4111</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7734</v>
+        <v>8019</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6124</v>
+        <v>5839</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15021</v>
+        <v>14648</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8618</v>
+        <v>8680</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13962</v>
+        <v>14464</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8588</v>
+        <v>9066</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18505</v>
+        <v>18239</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14942</v>
+        <v>14413</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16833</v>
+        <v>16347</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11321</v>
+        <v>11756</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32706</v>
+        <v>33960</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33484</v>
+        <v>32464</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33256</v>
+        <v>33130</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49410</v>
+        <v>47879</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34145</v>
+        <v>33384</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35284</v>
+        <v>34635</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29874</v>
+        <v>29850</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>53650</v>
+        <v>54656</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59894</v>
+        <v>58159</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56997</v>
+        <v>58575</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>77644</v>
+        <v>75371</v>
       </c>
     </row>
     <row r="20">
